--- a/Office Dateien/Planungstool.xlsx
+++ b/Office Dateien/Planungstool.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A751F3FA-6450-4527-B65F-3E15D5295D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD4EE17-797F-4F64-AD9F-DCFA96CF36D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="33">
   <si>
     <t>Soll</t>
   </si>
@@ -441,72 +441,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -527,11 +461,77 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="45">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
@@ -1478,177 +1478,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF69"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="dotted">
-          <color auto="1"/>
-        </top>
-        <bottom style="dotted">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="dotted">
-          <color auto="1"/>
-        </top>
-        <bottom style="dotted">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD20000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="dotted">
-          <color auto="1"/>
-        </top>
-        <bottom style="dotted">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF21B521"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="dotted">
-          <color auto="1"/>
-        </top>
-        <bottom style="dotted">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="dotted">
-          <color auto="1"/>
-        </top>
-        <bottom style="dotted">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF69"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="dotted">
-          <color auto="1"/>
-        </top>
-        <bottom style="dotted">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="dotted">
-          <color auto="1"/>
-        </top>
-        <bottom style="dotted">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="dotted">
-          <color auto="1"/>
-        </top>
-        <bottom style="dotted">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
       <border>
@@ -2013,7 +1842,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R26" sqref="R26"/>
+      <selection pane="bottomLeft" activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2108,8 +1937,12 @@
       <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
@@ -2129,7 +1962,7 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -2174,8 +2007,12 @@
       <c r="F5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="G5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -2193,7 +2030,7 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
@@ -2220,7 +2057,7 @@
       <c r="W6" s="9"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2228,18 +2065,20 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="H7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="9">
+        <v>1</v>
+      </c>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -2255,7 +2094,7 @@
       <c r="W7" s="9"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="32"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
@@ -2292,12 +2131,8 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
         <v>9</v>
       </c>
@@ -2310,8 +2145,12 @@
       <c r="L9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
+      <c r="M9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
@@ -2323,7 +2162,7 @@
       <c r="W9" s="9"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
@@ -2361,20 +2200,20 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
       <c r="J11" s="9" t="s">
         <v>9</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
+      <c r="L11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
@@ -2387,7 +2226,7 @@
       <c r="W11" s="9"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
@@ -2430,18 +2269,20 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
       <c r="O13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
+      <c r="P13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="R13" s="9">
+        <v>2</v>
+      </c>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
@@ -2449,7 +2290,7 @@
       <c r="W13" s="9"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
@@ -2491,20 +2332,20 @@
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M15" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
       <c r="N15" s="9" t="s">
         <v>9</v>
       </c>
       <c r="O15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
+      <c r="P15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
@@ -2513,274 +2354,270 @@
       <c r="W15" s="9"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="36"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q17" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="R17" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="S17" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="T17" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="U17" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="V17" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="W17" s="33" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="S17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="T17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="U17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="V17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="W17" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="40" t="s">
+      <c r="A18" s="23"/>
+      <c r="B18" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="33"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
     </row>
     <row r="19" spans="1:23" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="J19" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="L19" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="M19" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="N19" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="O19" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="P19" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q19" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="R19" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="S19" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="T19" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="U19" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="V19" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="W19" s="39" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="N19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="O19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="P19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="R19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="S19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="T19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="U19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="W19" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="K20" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="L20" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="M20" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="N20" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="O20" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="P20" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q20" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="R20" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="S20" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="T20" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="U20" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="V20" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="W20" s="39" t="s">
+      <c r="B20" s="13"/>
+      <c r="C20" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="O20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="P20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="R20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="S20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="T20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="U20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="V20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="W20" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="33"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="16" t="s">
+      <c r="J21" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="18"/>
-      <c r="R21" s="16" t="s">
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="33"/>
+      <c r="R21" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="S21" s="17"/>
-      <c r="T21" s="18"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="33"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="27"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="29"/>
       <c r="G22" s="8" t="s">
         <v>9</v>
       </c>
@@ -2789,29 +2626,29 @@
       <c r="J22" s="6">
         <v>1</v>
       </c>
-      <c r="K22" s="11" t="s">
+      <c r="K22" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="20"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="39"/>
       <c r="R22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="S22" s="11" t="s">
+      <c r="S22" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="T22" s="20"/>
+      <c r="T22" s="39"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="26"/>
       <c r="G23" s="8" t="s">
         <v>8</v>
       </c>
@@ -2820,29 +2657,29 @@
       <c r="J23" s="6">
         <v>2</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="K23" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="20"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="39"/>
       <c r="R23" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="S23" s="11" t="s">
+      <c r="S23" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="T23" s="20"/>
+      <c r="T23" s="39"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="24"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="26"/>
       <c r="G24" s="8" t="s">
         <v>16</v>
       </c>
@@ -2851,25 +2688,25 @@
       <c r="J24" s="6">
         <v>3</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="K24" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="20"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="39"/>
       <c r="R24" s="10"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="20"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="39"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="38"/>
       <c r="G25" s="7">
         <v>1</v>
       </c>
@@ -2878,17 +2715,17 @@
       <c r="J25" s="6">
         <v>4</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="K25" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="12"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="35"/>
       <c r="R25" s="6"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="12"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="35"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="H26" s="4"/>
@@ -2896,17 +2733,17 @@
       <c r="J26" s="6">
         <v>5</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="K26" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="12"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="35"/>
       <c r="R26" s="6"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="12"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="35"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J27" s="4"/>
@@ -2928,18 +2765,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A17:A18"/>
     <mergeCell ref="S26:T26"/>
     <mergeCell ref="S25:T25"/>
     <mergeCell ref="K25:P25"/>
@@ -2953,6 +2778,18 @@
     <mergeCell ref="K23:P23"/>
     <mergeCell ref="K24:P24"/>
     <mergeCell ref="K22:P22"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="G22:G25">
     <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
@@ -3116,6 +2953,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100F17C22294109C6479388C197EF5BF0FA" ma:contentTypeVersion="8" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="b1b68301ced241b62e9a0b810cd73a54">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2b5f3290-560c-41bf-9432-4e3518bf070b" xmlns:ns3="a7b26662-454b-427d-9c9c-48c2ebe2fdc3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c16848428da8146db086829b53d13714" ns2:_="" ns3:_="">
     <xsd:import namespace="2b5f3290-560c-41bf-9432-4e3518bf070b"/>
@@ -3292,15 +3138,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3313,6 +3150,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D40A0B1-374B-4476-A9A7-5D0F65375C6C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46016608-2FCA-48F2-8208-EE9E91FE85FC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3331,14 +3176,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D40A0B1-374B-4476-A9A7-5D0F65375C6C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A28816A6-2CE1-4EB9-AC76-5B03FBC26907}">
   <ds:schemaRefs>

--- a/Office Dateien/Planungstool.xlsx
+++ b/Office Dateien/Planungstool.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD4EE17-797F-4F64-AD9F-DCFA96CF36D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66CC923-7A71-44BF-89AF-4A259AAAD8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="33">
   <si>
     <t>Soll</t>
   </si>
@@ -415,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -457,75 +457,72 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1838,11 +1835,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:W28"/>
+  <dimension ref="A2:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T5" sqref="T5"/>
+      <selection pane="bottomLeft" activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1852,10 +1849,9 @@
     <col min="3" max="20" width="4.6640625" customWidth="1"/>
     <col min="21" max="21" width="4.109375" customWidth="1"/>
     <col min="22" max="22" width="4.44140625" customWidth="1"/>
-    <col min="23" max="23" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
@@ -1920,12 +1916,9 @@
       <c r="V2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="5" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1959,10 +1952,9 @@
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
       <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="29"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1986,10 +1978,9 @@
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2027,10 +2018,9 @@
       <c r="T5" s="9"/>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="39"/>
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
@@ -2054,10 +2044,9 @@
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="37" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2091,10 +2080,9 @@
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="38"/>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
@@ -2118,10 +2106,9 @@
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
       <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2159,10 +2146,9 @@
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
       <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="39"/>
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
@@ -2186,10 +2172,9 @@
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2223,10 +2208,9 @@
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="29"/>
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
@@ -2250,10 +2234,9 @@
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
       <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2287,10 +2270,9 @@
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="39"/>
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
@@ -2314,10 +2296,9 @@
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2351,10 +2332,9 @@
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="29"/>
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
@@ -2378,13 +2358,12 @@
       <c r="T16" s="14"/>
       <c r="U16" s="14"/>
       <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="11"/>
@@ -2417,13 +2396,10 @@
       <c r="V17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="W17" s="11" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="18" t="s">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A18" s="29"/>
+      <c r="B18" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="11"/>
@@ -2446,9 +2422,8 @@
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
     </row>
-    <row r="19" spans="1:23" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>30</v>
       </c>
@@ -2513,11 +2488,8 @@
       <c r="V19" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="W19" s="17" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>31</v>
       </c>
@@ -2582,42 +2554,39 @@
       <c r="V20" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="W20" s="17" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C21" s="31" t="s">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C21" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="31" t="s">
+      <c r="J21" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="33"/>
-      <c r="R21" s="31" t="s">
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="25"/>
+      <c r="R21" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="S21" s="32"/>
-      <c r="T21" s="33"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="25"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C22" s="27" t="s">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C22" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="29"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="35"/>
       <c r="G22" s="8" t="s">
         <v>9</v>
       </c>
@@ -2626,29 +2595,29 @@
       <c r="J22" s="6">
         <v>1</v>
       </c>
-      <c r="K22" s="34" t="s">
+      <c r="K22" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="39"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="26"/>
       <c r="R22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="S22" s="34" t="s">
+      <c r="S22" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="T22" s="39"/>
+      <c r="T22" s="26"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C23" s="30" t="s">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C23" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="26"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="32"/>
       <c r="G23" s="8" t="s">
         <v>8</v>
       </c>
@@ -2657,29 +2626,29 @@
       <c r="J23" s="6">
         <v>2</v>
       </c>
-      <c r="K23" s="34" t="s">
+      <c r="K23" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="39"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="26"/>
       <c r="R23" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="S23" s="34" t="s">
+      <c r="S23" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="T23" s="39"/>
+      <c r="T23" s="26"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C24" s="24" t="s">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C24" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="26"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="32"/>
       <c r="G24" s="8" t="s">
         <v>16</v>
       </c>
@@ -2688,25 +2657,25 @@
       <c r="J24" s="6">
         <v>3</v>
       </c>
-      <c r="K24" s="34" t="s">
+      <c r="K24" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="39"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="26"/>
       <c r="R24" s="10"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="39"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="26"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C25" s="36" t="s">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C25" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="38"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22"/>
       <c r="G25" s="7">
         <v>1</v>
       </c>
@@ -2715,37 +2684,37 @@
       <c r="J25" s="6">
         <v>4</v>
       </c>
-      <c r="K25" s="34" t="s">
+      <c r="K25" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="35"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="19"/>
       <c r="R25" s="6"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="35"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="19"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="6">
         <v>5</v>
       </c>
-      <c r="K26" s="34" t="s">
+      <c r="K26" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="35"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="19"/>
       <c r="R26" s="6"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="35"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="19"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -2754,7 +2723,7 @@
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
@@ -2765,6 +2734,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="S26:T26"/>
     <mergeCell ref="S25:T25"/>
     <mergeCell ref="K25:P25"/>
@@ -2778,18 +2759,6 @@
     <mergeCell ref="K23:P23"/>
     <mergeCell ref="K24:P24"/>
     <mergeCell ref="K22:P22"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="G22:G25">
     <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
@@ -2863,7 +2832,7 @@
       <formula>LEN(TRIM(C3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U3:W19">
+  <conditionalFormatting sqref="U3:V19">
     <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
       <formula>"k"</formula>
     </cfRule>
@@ -2917,7 +2886,7 @@
       <formula>LEN(TRIM(C20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U20:W20">
+  <conditionalFormatting sqref="U20:V20">
     <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"k"</formula>
     </cfRule>
@@ -2953,15 +2922,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100F17C22294109C6479388C197EF5BF0FA" ma:contentTypeVersion="8" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="b1b68301ced241b62e9a0b810cd73a54">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2b5f3290-560c-41bf-9432-4e3518bf070b" xmlns:ns3="a7b26662-454b-427d-9c9c-48c2ebe2fdc3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c16848428da8146db086829b53d13714" ns2:_="" ns3:_="">
     <xsd:import namespace="2b5f3290-560c-41bf-9432-4e3518bf070b"/>
@@ -3138,6 +3098,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3150,14 +3119,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D40A0B1-374B-4476-A9A7-5D0F65375C6C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46016608-2FCA-48F2-8208-EE9E91FE85FC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3176,6 +3137,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D40A0B1-374B-4476-A9A7-5D0F65375C6C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A28816A6-2CE1-4EB9-AC76-5B03FBC26907}">
   <ds:schemaRefs>

--- a/Office Dateien/Planungstool.xlsx
+++ b/Office Dateien/Planungstool.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66CC923-7A71-44BF-89AF-4A259AAAD8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E334E92-A7FA-42F5-B81F-01A249E13AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,27 +92,6 @@
     <t>Planung Projekt Grower</t>
   </si>
   <si>
-    <t>Titlescreen</t>
-  </si>
-  <si>
-    <t>Worldmap</t>
-  </si>
-  <si>
-    <t>Tag Nacht</t>
-  </si>
-  <si>
-    <t>Zuhause</t>
-  </si>
-  <si>
-    <t>Schule</t>
-  </si>
-  <si>
-    <t>Flowershop/Dealer</t>
-  </si>
-  <si>
-    <t>Cops</t>
-  </si>
-  <si>
     <t>Cameron</t>
   </si>
   <si>
@@ -126,6 +105,27 @@
   </si>
   <si>
     <t>Playtesting</t>
+  </si>
+  <si>
+    <t>Titlescreen (Cameron)</t>
+  </si>
+  <si>
+    <t>Worldmap (Nelson)</t>
+  </si>
+  <si>
+    <t>Zuhause (Nelson)</t>
+  </si>
+  <si>
+    <t>Flowershop/Dealer (Nelson)</t>
+  </si>
+  <si>
+    <t>Tag Nacht (Cameron)</t>
+  </si>
+  <si>
+    <t>Schule (Cameron)</t>
+  </si>
+  <si>
+    <t>Cops (Cameron)</t>
   </si>
 </sst>
 </file>
@@ -458,6 +458,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -473,56 +518,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1839,7 +1839,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W13" sqref="W13"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1918,8 +1918,8 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
-        <v>21</v>
+      <c r="A3" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -1954,7 +1954,7 @@
       <c r="V3" s="9"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1980,8 +1980,8 @@
       <c r="V4" s="9"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
-        <v>22</v>
+      <c r="A5" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>0</v>
@@ -2020,7 +2020,7 @@
       <c r="V5" s="9"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
@@ -2046,8 +2046,8 @@
       <c r="V6" s="9"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
-        <v>23</v>
+      <c r="A7" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
@@ -2082,7 +2082,7 @@
       <c r="V7" s="9"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="38"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
@@ -2108,8 +2108,8 @@
       <c r="V8" s="9"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
-        <v>24</v>
+      <c r="A9" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>0</v>
@@ -2148,7 +2148,7 @@
       <c r="V9" s="9"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="39"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
@@ -2174,8 +2174,8 @@
       <c r="V10" s="9"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
-        <v>25</v>
+      <c r="A11" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>0</v>
@@ -2210,7 +2210,7 @@
       <c r="V11" s="9"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
@@ -2236,8 +2236,8 @@
       <c r="V12" s="9"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
-        <v>26</v>
+      <c r="A13" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>0</v>
@@ -2272,7 +2272,7 @@
       <c r="V13" s="9"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="39"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
@@ -2298,8 +2298,8 @@
       <c r="V14" s="9"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
-        <v>27</v>
+      <c r="A15" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>0</v>
@@ -2334,7 +2334,7 @@
       <c r="V15" s="9"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
@@ -2360,8 +2360,8 @@
       <c r="V16" s="14"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
-        <v>32</v>
+      <c r="A17" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>0</v>
@@ -2398,7 +2398,7 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="17" t="s">
         <v>1</v>
       </c>
@@ -2425,7 +2425,7 @@
     </row>
     <row r="19" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="15" t="s">
@@ -2491,7 +2491,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="15" t="s">
@@ -2556,37 +2556,37 @@
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="32"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="23" t="s">
+      <c r="J21" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="25"/>
-      <c r="R21" s="23" t="s">
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="32"/>
+      <c r="R21" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="S21" s="24"/>
-      <c r="T21" s="25"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="32"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="28"/>
       <c r="G22" s="8" t="s">
         <v>9</v>
       </c>
@@ -2595,29 +2595,29 @@
       <c r="J22" s="6">
         <v>1</v>
       </c>
-      <c r="K22" s="18" t="s">
+      <c r="K22" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="26"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="38"/>
       <c r="R22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="S22" s="18" t="s">
+      <c r="S22" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="T22" s="26"/>
+      <c r="T22" s="38"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="32"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="25"/>
       <c r="G23" s="8" t="s">
         <v>8</v>
       </c>
@@ -2626,29 +2626,29 @@
       <c r="J23" s="6">
         <v>2</v>
       </c>
-      <c r="K23" s="18" t="s">
+      <c r="K23" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="26"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="38"/>
       <c r="R23" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="S23" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="T23" s="26"/>
+        <v>22</v>
+      </c>
+      <c r="S23" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="T23" s="38"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="32"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="25"/>
       <c r="G24" s="8" t="s">
         <v>16</v>
       </c>
@@ -2657,25 +2657,25 @@
       <c r="J24" s="6">
         <v>3</v>
       </c>
-      <c r="K24" s="18" t="s">
+      <c r="K24" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="26"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="38"/>
       <c r="R24" s="10"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="26"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="38"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="22"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="37"/>
       <c r="G25" s="7">
         <v>1</v>
       </c>
@@ -2684,17 +2684,17 @@
       <c r="J25" s="6">
         <v>4</v>
       </c>
-      <c r="K25" s="18" t="s">
+      <c r="K25" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="19"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="34"/>
       <c r="R25" s="6"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="19"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="34"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="H26" s="4"/>
@@ -2702,17 +2702,17 @@
       <c r="J26" s="6">
         <v>5</v>
       </c>
-      <c r="K26" s="18" t="s">
+      <c r="K26" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="19"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="34"/>
       <c r="R26" s="6"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="19"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="34"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="J27" s="4"/>
@@ -2734,18 +2734,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A17:A18"/>
     <mergeCell ref="S26:T26"/>
     <mergeCell ref="S25:T25"/>
     <mergeCell ref="K25:P25"/>
@@ -2759,6 +2747,18 @@
     <mergeCell ref="K23:P23"/>
     <mergeCell ref="K24:P24"/>
     <mergeCell ref="K22:P22"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="G22:G25">
     <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
@@ -2922,6 +2922,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100F17C22294109C6479388C197EF5BF0FA" ma:contentTypeVersion="8" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="b1b68301ced241b62e9a0b810cd73a54">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2b5f3290-560c-41bf-9432-4e3518bf070b" xmlns:ns3="a7b26662-454b-427d-9c9c-48c2ebe2fdc3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c16848428da8146db086829b53d13714" ns2:_="" ns3:_="">
     <xsd:import namespace="2b5f3290-560c-41bf-9432-4e3518bf070b"/>
@@ -3098,15 +3107,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3119,6 +3119,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D40A0B1-374B-4476-A9A7-5D0F65375C6C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46016608-2FCA-48F2-8208-EE9E91FE85FC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3137,14 +3145,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D40A0B1-374B-4476-A9A7-5D0F65375C6C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A28816A6-2CE1-4EB9-AC76-5B03FBC26907}">
   <ds:schemaRefs>
